--- a/Img/相関.xlsx
+++ b/Img/相関.xlsx
@@ -20,12 +20,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +60,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +75,1977 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199"/>
+                <c:pt idx="0">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC70-4BF9-9715-F1BC3B3C2FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="379370656"/>
+        <c:axId val="379373608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="379370656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="379373608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="379373608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="379370656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +2090,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +2125,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +2307,2017 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <f ca="1">B2+$C$1*RANDBETWEEN(0,100)</f>
+        <v>116</v>
+      </c>
+      <c r="F2">
+        <f ca="1">CORREL(B2:B200,C2:C200)</f>
+        <v>0.49340300295829942</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(0,100)</f>
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" ca="1" si="1">B3+$C$1*RANDBETWEEN(0,100)</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="1"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="1"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="1"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="1"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="1"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="1"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="1"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="1"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="1"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="1"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="1"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="1"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="1"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B67">
+        <f t="shared" ref="B67:B130" ca="1" si="2">RANDBETWEEN(0,100)</f>
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C130" ca="1" si="3">B67+$C$1*RANDBETWEEN(0,100)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B68">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B70">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="3"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B71">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B72">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B73">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="3"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B74">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B75">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="3"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B76">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="3"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B77">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B78">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="3"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B79">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B80">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B81">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B82">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="3"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B83">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="3"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B84">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="3"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B85">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B86">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B87">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B88">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B89">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="3"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B90">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="3"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B91">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="3"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B92">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="3"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B93">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B94">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="3"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B95">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="3"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B96">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="3"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B97">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="3"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B98">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B100">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="3"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B101">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="3"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B102">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ca="1" si="3"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B103">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ca="1" si="3"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B104">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ca="1" si="3"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B105">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ca="1" si="3"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B106">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ca="1" si="3"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B107">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ca="1" si="3"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B108">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B109">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ca="1" si="3"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B110">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ca="1" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B111">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B112">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ca="1" si="3"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B113">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ca="1" si="3"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B114">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ca="1" si="3"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B115">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ca="1" si="3"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B116">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ca="1" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B117">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ca="1" si="3"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B118">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B119">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ca="1" si="3"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B120">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ca="1" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B121">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ca="1" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B122">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ca="1" si="3"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B123">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ca="1" si="3"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B124">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ca="1" si="3"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B125">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B126">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B127">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ca="1" si="3"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B128">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ca="1" si="3"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B129">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ca="1" si="3"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B130">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ca="1" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B131">
+        <f t="shared" ref="B131:B194" ca="1" si="4">RANDBETWEEN(0,100)</f>
+        <v>23</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C194" ca="1" si="5">B131+$C$1*RANDBETWEEN(0,100)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B132">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B133">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ca="1" si="5"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B134">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ca="1" si="5"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B135">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ca="1" si="5"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B136">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B137">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ca="1" si="5"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B138">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ca="1" si="5"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B139">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ca="1" si="5"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B140">
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="C140">
+        <f t="shared" ca="1" si="5"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B141">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B142">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ca="1" si="5"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B143">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ca="1" si="5"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B144">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B145">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ca="1" si="5"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B146">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B147">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B148">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B149">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B150">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B151">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="C151">
+        <f t="shared" ca="1" si="5"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B152">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ca="1" si="5"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B153">
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C153">
+        <f t="shared" ca="1" si="5"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B154">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ca="1" si="5"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B155">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B156">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="C156">
+        <f t="shared" ca="1" si="5"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B157">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="C157">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B158">
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="C158">
+        <f t="shared" ca="1" si="5"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B159">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C159">
+        <f t="shared" ca="1" si="5"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B160">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="C160">
+        <f t="shared" ca="1" si="5"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B161">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <f t="shared" ca="1" si="5"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B162">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B163">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ca="1" si="5"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B164">
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="C164">
+        <f t="shared" ca="1" si="5"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B165">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="C165">
+        <f t="shared" ca="1" si="5"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B166">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <f t="shared" ca="1" si="5"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B167">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B168">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C168">
+        <f t="shared" ca="1" si="5"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B169">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C169">
+        <f t="shared" ca="1" si="5"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B170">
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="C170">
+        <f t="shared" ca="1" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B171">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C171">
+        <f t="shared" ca="1" si="5"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B172">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C172">
+        <f t="shared" ca="1" si="5"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B173">
+        <f t="shared" ca="1" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B174">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ca="1" si="5"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B175">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ca="1" si="5"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B176">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ca="1" si="5"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B177">
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="C177">
+        <f t="shared" ca="1" si="5"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B178">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="C178">
+        <f t="shared" ca="1" si="5"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B179">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ca="1" si="5"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B180">
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ca="1" si="5"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B181">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B182">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="C182">
+        <f t="shared" ca="1" si="5"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B183">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="C183">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B184">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ca="1" si="5"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B185">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="C185">
+        <f t="shared" ca="1" si="5"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B186">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="C186">
+        <f t="shared" ca="1" si="5"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B187">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="C187">
+        <f t="shared" ca="1" si="5"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B188">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="C188">
+        <f t="shared" ca="1" si="5"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B189">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="C189">
+        <f t="shared" ca="1" si="5"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B190">
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="C190">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B191">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C191">
+        <f t="shared" ca="1" si="5"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B192">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="C192">
+        <f t="shared" ca="1" si="5"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B193">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ca="1" si="5"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B194">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ca="1" si="5"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B195">
+        <f t="shared" ref="B195:B200" ca="1" si="6">RANDBETWEEN(0,100)</f>
+        <v>16</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:C200" ca="1" si="7">B195+$C$1*RANDBETWEEN(0,100)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B196">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ca="1" si="7"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B197">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="C197">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B198">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ca="1" si="7"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B199">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="C199">
+        <f t="shared" ca="1" si="7"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B200">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="C200">
+        <f t="shared" ca="1" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Img/相関.xlsx
+++ b/Img/相関.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2F4740-BA00-428A-BB08-CE469938F352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +28,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+  <si>
+    <t>相関</t>
+    <rPh sb="0" eb="2">
+      <t>ソウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体相関</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,154 +159,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="199"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>71</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>26</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,154 +318,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="199"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.5</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.5</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.5</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.5</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.5</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>127.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>117</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>129.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>92.5</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>104.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>92.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>120.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>66.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>64.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>99.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>111</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>55.5</c:v>
+                  <c:v>54.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>119.5</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>96</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>77.5</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.5</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>87</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>112</c:v>
+                  <c:v>123.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>70</c:v>
+                  <c:v>116.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>92.5</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>26</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -569,7 +591,1789 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.64806426250451543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15160372207689168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15160372207689168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1478567528678949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5177031957367955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1511887028036505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4843836963792369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14827177214113599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4477322470859226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4181597169373607</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.81466175929230855</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3511056989490025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.31486926892892914</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.4810517464434811</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2511472008763265</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.78134225993474993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98459120601585737</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.54810576443183956</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.3477737490132466</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21824272079200893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.39366322033821038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5453151832293347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6827049049127674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1607693992958141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2024736890908736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5778122972464061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41514724841445283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.501986315800844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55416154773131687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.78543079114028158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.72224247326897983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59207453845409797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.5563282691701636</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50361089343427534</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8574654735135655</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2239577171671161</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.3288503248334771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.46948920178377257</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51624855700853578</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.21673593029856528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD6E-489B-9DC6-BFF50F0ACA45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454875136"/>
+        <c:axId val="454877104"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$28:$D$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>-0.76113393522763262</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.67016175173429016</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1.2463189138587929</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.7291655048002721E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1.2159948526943454</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.8157172453236381</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.75506912299474305</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.57312475600805801</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.694421000665848</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-1.0643745468721078</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-0.91275424104987024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-0.82178205755652767</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.5434947132703785</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.87636536765253314</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.3918744074481408</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.4828465909414834</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.1796059792970084</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-0.73080987406318521</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-0.63983769056984263</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-1.2766429750232404</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$E$28:$E$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>0.75361016578942475</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.40496489336015351</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.8907301312510478</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.15286754252668047</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.7190893817474067</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1.1237105319066512</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-0.45860262758004139</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-1.1666207192825615</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.7857928063213574</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-0.90915959502709953</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.42105621362611984</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-0.57660564286379468</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-1.5742674993537094</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.7857928063213574</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-0.23332414385651229</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-0.29768942492037775</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.58196941628578347</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.579631272775698</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-0.96279732924698747</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-0.96279732924698747</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-BD6E-489B-9DC6-BFF50F0ACA45}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454875136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454877104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="454877104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454875136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.64806426250451543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15160372207689168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15160372207689168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1478567528678949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5177031957367955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1511887028036505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4843836963792369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14827177214113599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4477322470859226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4181597169373607</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.81466175929230855</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3511056989490025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.31486926892892914</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.4810517464434811</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2511472008763265</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.78134225993474993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98459120601585737</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.54810576443183956</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.3477737490132466</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21824272079200893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.39366322033821038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5453151832293347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6827049049127674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1607693992958141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2024736890908736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5778122972464061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41514724841445283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.501986315800844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55416154773131687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.78543079114028158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.72224247326897983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59207453845409797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.5563282691701636</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50361089343427534</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8574654735135655</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2239577171671161</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.3288503248334771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.46948920178377257</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51624855700853578</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.21673593029856528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E61F-48CB-AF56-252CF22BCF27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$28:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.76113393522763262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.67016175173429016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2463189138587929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7291655048002721E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2159948526943454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8157172453236381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75506912299474305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57312475600805801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.694421000665848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0643745468721078</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.91275424104987024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.82178205755652767</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5434947132703785</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87636536765253314</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3918744074481408</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4828465909414834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1796059792970084</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.73080987406318521</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.63983769056984263</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.2766429750232404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$28:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.75361016578942475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.40496489336015351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8907301312510478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15286754252668047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7190893817474067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1237105319066512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.45860262758004139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1666207192825615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7857928063213574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.90915959502709953</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42105621362611984</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.57660564286379468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.5742674993537094</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7857928063213574</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.23332414385651229</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.29768942492037775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58196941628578347</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.579631272775698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.96279732924698747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.96279732924698747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E61F-48CB-AF56-252CF22BCF27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454875136"/>
+        <c:axId val="454877104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454875136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454877104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="454877104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454875136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$28:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.76113393522763262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.67016175173429016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2463189138587929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7291655048002721E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2159948526943454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8157172453236381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75506912299474305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57312475600805801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.694421000665848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0643745468721078</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.91275424104987024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.82178205755652767</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5434947132703785</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87636536765253314</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3918744074481408</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4828465909414834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1796059792970084</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.73080987406318521</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.63983769056984263</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.2766429750232404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$28:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.75361016578942475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.40496489336015351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8907301312510478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15286754252668047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7190893817474067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1237105319066512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.45860262758004139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1666207192825615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7857928063213574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.90915959502709953</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42105621362611984</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.57660564286379468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.5742674993537094</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7857928063213574</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.23332414385651229</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.29768942492037775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58196941628578347</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.579631272775698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.96279732924698747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.96279732924698747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F660-41B7-8A27-7B632D34AFAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454875136"/>
+        <c:axId val="454877104"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$3:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>-0.64806426250451543</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.15160372207689168</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.15160372207689168</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1.1478567528678949</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.5177031957367955</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.1511887028036505</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.4843836963792369</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-0.14827177214113599</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-1.4477322470859226</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.4181597169373607</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-0.81466175929230855</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.3511056989490025</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-0.31486926892892914</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-1.4810517464434811</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.2511472008763265</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-0.78134225993474993</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.98459120601585737</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-0.54810576443183956</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-1.3477737490132466</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.21824272079200893</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$E$3:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>-0.39366322033821038</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.5453151832293347</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1.6827049049127674</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.1607693992958141</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1.2024736890908736</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.5778122972464061</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.41514724841445283</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.501986315800844</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.55416154773131687</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-0.78543079114028158</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-0.72224247326897983</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.59207453845409797</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-1.5563282691701636</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.50361089343427534</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.8574654735135655</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.2239577171671161</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-1.3288503248334771</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-0.46948920178377257</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.51624855700853578</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-0.21673593029856528</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-F660-41B7-8A27-7B632D34AFAB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454875136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454877104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="454877104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="-2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454875136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1125,6 +2929,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1158,6 +4510,107 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1428,11 +4881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1445,25 +4898,25 @@
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <f ca="1">B2+$C$1*RANDBETWEEN(0,100)</f>
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F2">
         <f ca="1">CORREL(B2:B200,C2:C200)</f>
-        <v>0.89668959164417539</v>
+        <v>0.85831162153543827</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3">
-        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0,100)</f>
+        <v>6</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" ca="1" si="1">B3+$C$1*RANDBETWEEN(0,100)</f>
-        <v>112.5</v>
+        <f t="shared" ref="C3:C51" ca="1" si="1">B3+$C$1*RANDBETWEEN(0,100)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
@@ -1473,477 +4926,477 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>73.5</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>55.5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>67.5</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>59.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>95.5</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>50.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>127.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>92.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>104.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>41.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>34.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>19.5</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>92.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>120.5</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>66.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>64.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>99.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>119.5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>77.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>44.5</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>92.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1952,4 +5405,816 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f ca="1">CORREL(B3:B22,C3:C22)</f>
+        <v>-0.13530057319121044</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <f ca="1">CORREL(D3:D47,E3:E47)</f>
+        <v>-0.22274245641165516</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <f ca="1">B3+$C$2*RANDBETWEEN(0,100)</f>
+        <v>166</v>
+      </c>
+      <c r="D3">
+        <f ca="1">(B3-$B$23)/$B$24</f>
+        <v>-0.64806426250451543</v>
+      </c>
+      <c r="E3">
+        <f ca="1">(C3-$C$23)/$C$24</f>
+        <v>-0.39366322033821038</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <f t="shared" ref="B4:B22" ca="1" si="0">RANDBETWEEN(0,100)</f>
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C22" ca="1" si="1">B4+$C$2*RANDBETWEEN(0,100)</f>
+        <v>154</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D22" ca="1" si="2">(B4-$B$23)/$B$24</f>
+        <v>0.15160372207689168</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E22" ca="1" si="3">(C4-$C$23)/$C$24</f>
+        <v>-0.5453151832293347</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15160372207689168</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.6827049049127674</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.1478567528678949</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1607693992958141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5177031957367955</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.2024736890908736</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>322</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1511887028036505</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5778122972464061</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4843836963792369</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.41514724841445283</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.14827177214113599</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.501986315800844</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.4477322470859226</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.55416154773131687</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4181597169373607</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.78543079114028158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.81466175929230855</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.72224247326897983</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3511056989490025</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.59207453845409797</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.31486926892892914</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.5563282691701636</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.4810517464434811</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50361089343427534</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2511472008763265</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8574654735135655</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.78134225993474993</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2239577171671161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98459120601585737</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.3288503248334771</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.54810576443183956</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.46948920178377257</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.3477737490132466</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.51624855700853578</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D22">
+        <f ca="1">(B22-$B$23)/$B$24</f>
+        <v>0.21824272079200893</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.21673593029856528</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <f ca="1">AVERAGE(B3:B22)</f>
+        <v>53.45</v>
+      </c>
+      <c r="C23">
+        <f ca="1">AVERAGE(C3:C22)</f>
+        <v>197.15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <f ca="1">_xlfn.STDEV.P(B3:B22)</f>
+        <v>30.012455747572538</v>
+      </c>
+      <c r="C24">
+        <f ca="1">_xlfn.STDEV.P(C3:C22)</f>
+        <v>79.12855047326471</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f ca="1">CORREL(B28:B47,C28:C47)</f>
+        <v>-0.31018433963209968</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C27">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <f ca="1">-B28+$C$2*RANDBETWEEN(0,100)</f>
+        <v>153</v>
+      </c>
+      <c r="D28">
+        <f ca="1">(B28-$B$48)/$B$49</f>
+        <v>-0.76113393522763262</v>
+      </c>
+      <c r="E28">
+        <f ca="1">(C28-$C$48)/$C$49</f>
+        <v>0.75361016578942475</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <f t="shared" ref="B29:B47" ca="1" si="4">RANDBETWEEN(0,100)</f>
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C47" ca="1" si="5">-B29+$C$2*RANDBETWEEN(0,100)</f>
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <f ca="1">(B29-$B$48)/$B$49</f>
+        <v>-0.67016175173429016</v>
+      </c>
+      <c r="E29">
+        <f ca="1">(C29-$C$48)/$C$49</f>
+        <v>-0.40496489336015351</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="5"/>
+        <v>259</v>
+      </c>
+      <c r="D30">
+        <f ca="1">(B30-$B$48)/$B$49</f>
+        <v>-1.2463189138587929</v>
+      </c>
+      <c r="E30">
+        <f ca="1">(C30-$C$48)/$C$49</f>
+        <v>1.8907301312510478</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="D31">
+        <f ca="1">(B31-$B$48)/$B$49</f>
+        <v>2.7291655048002721E-2</v>
+      </c>
+      <c r="E31">
+        <f ca="1">(C31-$C$48)/$C$49</f>
+        <v>0.15286754252668047</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="D32">
+        <f ca="1">(B32-$B$48)/$B$49</f>
+        <v>-1.2159948526943454</v>
+      </c>
+      <c r="E32">
+        <f ca="1">(C32-$C$48)/$C$49</f>
+        <v>1.7190893817474067</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="5"/>
+        <v>-22</v>
+      </c>
+      <c r="D33">
+        <f ca="1">(B33-$B$48)/$B$49</f>
+        <v>0.8157172453236381</v>
+      </c>
+      <c r="E33">
+        <f ca="1">(C33-$C$48)/$C$49</f>
+        <v>-1.1237105319066512</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <f ca="1">(B34-$B$48)/$B$49</f>
+        <v>0.75506912299474305</v>
+      </c>
+      <c r="E34">
+        <f ca="1">(C34-$C$48)/$C$49</f>
+        <v>-0.45860262758004139</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="5"/>
+        <v>-26</v>
+      </c>
+      <c r="D35">
+        <f ca="1">(B35-$B$48)/$B$49</f>
+        <v>0.57312475600805801</v>
+      </c>
+      <c r="E35">
+        <f ca="1">(C35-$C$48)/$C$49</f>
+        <v>-1.1666207192825615</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="D36">
+        <f ca="1">(B36-$B$48)/$B$49</f>
+        <v>0.694421000665848</v>
+      </c>
+      <c r="E36">
+        <f ca="1">(C36-$C$48)/$C$49</f>
+        <v>0.7857928063213574</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="D37">
+        <f ca="1">(B37-$B$48)/$B$49</f>
+        <v>-1.0643745468721078</v>
+      </c>
+      <c r="E37">
+        <f ca="1">(C37-$C$48)/$C$49</f>
+        <v>-0.90915959502709953</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="5"/>
+        <v>122</v>
+      </c>
+      <c r="D38">
+        <f ca="1">(B38-$B$48)/$B$49</f>
+        <v>-0.91275424104987024</v>
+      </c>
+      <c r="E38">
+        <f ca="1">(C38-$C$48)/$C$49</f>
+        <v>0.42105621362611984</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <f ca="1">(B39-$B$48)/$B$49</f>
+        <v>-0.82178205755652767</v>
+      </c>
+      <c r="E39">
+        <f ca="1">(C39-$C$48)/$C$49</f>
+        <v>-0.57660564286379468</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="5"/>
+        <v>-64</v>
+      </c>
+      <c r="D40">
+        <f ca="1">(B40-$B$48)/$B$49</f>
+        <v>1.5434947132703785</v>
+      </c>
+      <c r="E40">
+        <f ca="1">(C40-$C$48)/$C$49</f>
+        <v>-1.5742674993537094</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>78</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="D41">
+        <f ca="1">(B41-$B$48)/$B$49</f>
+        <v>0.87636536765253314</v>
+      </c>
+      <c r="E41">
+        <f ca="1">(C41-$C$48)/$C$49</f>
+        <v>0.7857928063213574</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="D42">
+        <f ca="1">(B42-$B$48)/$B$49</f>
+        <v>1.3918744074481408</v>
+      </c>
+      <c r="E42">
+        <f ca="1">(C42-$C$48)/$C$49</f>
+        <v>-0.23332414385651229</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="D43">
+        <f ca="1">(B43-$B$48)/$B$49</f>
+        <v>1.4828465909414834</v>
+      </c>
+      <c r="E43">
+        <f ca="1">(C43-$C$48)/$C$49</f>
+        <v>-0.29768942492037775</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B44">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="5"/>
+        <v>137</v>
+      </c>
+      <c r="D44">
+        <f ca="1">(B44-$B$48)/$B$49</f>
+        <v>1.1796059792970084</v>
+      </c>
+      <c r="E44">
+        <f ca="1">(C44-$C$48)/$C$49</f>
+        <v>0.58196941628578347</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="5"/>
+        <v>230</v>
+      </c>
+      <c r="D45">
+        <f ca="1">(B45-$B$48)/$B$49</f>
+        <v>-0.73080987406318521</v>
+      </c>
+      <c r="E45">
+        <f ca="1">(C45-$C$48)/$C$49</f>
+        <v>1.579631272775698</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="D46">
+        <f ca="1">(B46-$B$48)/$B$49</f>
+        <v>-0.63983769056984263</v>
+      </c>
+      <c r="E46">
+        <f ca="1">(C46-$C$48)/$C$49</f>
+        <v>-0.96279732924698747</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="D47">
+        <f ca="1">(B47-$B$48)/$B$49</f>
+        <v>-1.2766429750232404</v>
+      </c>
+      <c r="E47">
+        <f ca="1">(C47-$C$48)/$C$49</f>
+        <v>-0.96279732924698747</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <f ca="1">AVERAGE(B28:B47)</f>
+        <v>49.1</v>
+      </c>
+      <c r="C48">
+        <f ca="1">AVERAGE(C28:C47)</f>
+        <v>82.75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <f ca="1">_xlfn.STDEV.P(B28:B47)</f>
+        <v>32.977113275725031</v>
+      </c>
+      <c r="C49">
+        <f ca="1">_xlfn.STDEV.P(C28:C47)</f>
+        <v>93.217956961092</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>